--- a/坐标/剩余.xlsx
+++ b/坐标/剩余.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MODIS\坐标\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="330">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1347,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
@@ -1373,21 +1373,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="D2">
-        <v>116.5856</v>
+        <v>119.4641</v>
       </c>
       <c r="E2">
-        <v>35.414400000000001</v>
+        <v>35.4178</v>
       </c>
     </row>
   </sheetData>
@@ -2253,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E49" sqref="A49:E49"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3118,6 +3118,9 @@
       <c r="E49">
         <v>35.414400000000001</v>
       </c>
+      <c r="F49" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -3135,6 +3138,9 @@
       <c r="E50">
         <v>35.4039</v>
       </c>
+      <c r="F50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3151,6 +3157,9 @@
       </c>
       <c r="E51">
         <v>36.194200000000002</v>
+      </c>
+      <c r="F51" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,8 +3443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/剩余.xlsx
+++ b/坐标/剩余.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="330">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1373,21 +1373,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="D2">
-        <v>119.4641</v>
+        <v>117.8184</v>
       </c>
       <c r="E2">
-        <v>35.4178</v>
+        <v>40.973300000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1952,6 +1952,9 @@
       <c r="E30">
         <v>40.984299999999998</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1969,6 +1972,9 @@
       <c r="E31">
         <v>40.935899999999997</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1987,7 +1993,7 @@
         <v>40.973300000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>241</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>41.011200000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -2020,8 +2026,11 @@
       <c r="E34">
         <v>39.517800000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -2038,7 +2047,7 @@
         <v>39.5747</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>39.557099999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>39.534300000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>38.299100000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>254</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>38.325400000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>256</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>38.322800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>37.7575</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>260</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>37.737900000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>261</v>
       </c>
@@ -2174,7 +2183,7 @@
         <v>37.738999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>262</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>37.096699999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>265</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>37.0533</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>267</v>
       </c>
@@ -2225,7 +2234,7 @@
         <v>37.096400000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>269</v>
       </c>
@@ -2253,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:E54"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3214,6 +3223,9 @@
       </c>
       <c r="E54">
         <v>35.4178</v>
+      </c>
+      <c r="F54" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,7 +3455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>

--- a/坐标/剩余.xlsx
+++ b/坐标/剩余.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="7" r:id="rId1"/>
-    <sheet name="河北" sheetId="4" r:id="rId2"/>
-    <sheet name="山东" sheetId="5" r:id="rId3"/>
-    <sheet name="汇总" sheetId="6" r:id="rId4"/>
+    <sheet name="TEST" sheetId="8" r:id="rId2"/>
+    <sheet name="河北" sheetId="4" r:id="rId3"/>
+    <sheet name="山东" sheetId="5" r:id="rId4"/>
+    <sheet name="汇总" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="330">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1023,7 +1024,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1043,6 +1044,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1347,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1375,19 +1382,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D2">
-        <v>117.8184</v>
+        <v>115.49299999999999</v>
       </c>
       <c r="E2">
-        <v>40.973300000000002</v>
+        <v>38.863199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1399,10 +1406,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3">
+        <v>116.434</v>
+      </c>
+      <c r="E3">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1674,6 +1714,9 @@
       <c r="E14">
         <v>36.617629999999998</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1742,6 +1785,9 @@
       <c r="E18">
         <v>38.863199999999999</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1901,6 +1947,9 @@
       <c r="E27">
         <v>40.768799999999999</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1935,6 +1984,9 @@
       <c r="E29">
         <v>40.9161</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1992,6 +2044,9 @@
       <c r="E32">
         <v>40.973300000000002</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2062,6 +2117,9 @@
       </c>
       <c r="E36">
         <v>39.557099999999998</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2258,12 +2316,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3451,7 +3509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>

--- a/坐标/剩余.xlsx
+++ b/坐标/剩余.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="330">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1354,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1382,19 +1382,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="D2">
-        <v>115.49299999999999</v>
+        <v>116.434</v>
       </c>
       <c r="E2">
-        <v>38.863199999999999</v>
+        <v>39.874499999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1441,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1838,6 +1838,9 @@
       </c>
       <c r="E21">
         <v>38.8416</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2897,7 +2900,7 @@
         <v>34.863999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -2913,8 +2916,11 @@
       <c r="E33">
         <v>34.783700000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>34.774500000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -2947,8 +2953,11 @@
       <c r="E35">
         <v>34.566699999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>35.099200000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>37.563899999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2999,7 +3008,7 @@
         <v>37.543300000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>37.543599999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>37.482199999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -3049,8 +3058,11 @@
       <c r="E41">
         <v>37.496699999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -3067,7 +3079,7 @@
         <v>37.3872</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -3084,7 +3096,7 @@
         <v>36.701900000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -3101,7 +3113,7 @@
         <v>36.730600000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -3118,7 +3130,7 @@
         <v>36.700800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -3134,8 +3146,11 @@
       <c r="E46">
         <v>36.657200000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3152,7 +3167,7 @@
         <v>36.773099999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
